--- a/SupplementalFile1_HumanUniqueness.xlsx
+++ b/SupplementalFile1_HumanUniqueness.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B853252-F693-41E4-A4CA-C310E7FD1A66}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03464B95-4DAD-446A-B4DC-80F765BF4672}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="101">
   <si>
     <t xml:space="preserve">species </t>
   </si>
@@ -324,6 +324,9 @@
   </si>
   <si>
     <t>Xenopus_laevis</t>
+  </si>
+  <si>
+    <t>group name</t>
   </si>
 </sst>
 </file>
@@ -1273,16 +1276,16 @@
         <v>89</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1292,17 +1295,17 @@
       <c r="B2" t="s">
         <v>42</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2">
         <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1312,17 +1315,17 @@
       <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7</v>
+      </c>
+      <c r="F3">
         <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1332,17 +1335,17 @@
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="F4">
         <v>2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1352,17 +1355,17 @@
       <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="F5">
         <v>2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1372,17 +1375,17 @@
       <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="F6">
         <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1392,17 +1395,17 @@
       <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="1">
+      <c r="F7">
         <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1412,17 +1415,17 @@
       <c r="B8" t="s">
         <v>44</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6</v>
+      </c>
+      <c r="F8">
         <v>3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1432,17 +1435,17 @@
       <c r="B9" t="s">
         <v>44</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6</v>
+      </c>
+      <c r="F9">
         <v>3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1452,17 +1455,17 @@
       <c r="B10" t="s">
         <v>44</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6</v>
+      </c>
+      <c r="F10">
         <v>3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1472,17 +1475,17 @@
       <c r="B11" t="s">
         <v>44</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6</v>
+      </c>
+      <c r="F11">
         <v>3</v>
-      </c>
-      <c r="D11" s="1">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1492,8 +1495,8 @@
       <c r="B12" t="s">
         <v>45</v>
       </c>
-      <c r="C12">
-        <v>4</v>
+      <c r="C12" s="1">
+        <v>2</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
@@ -1501,8 +1504,8 @@
       <c r="E12" s="1">
         <v>3</v>
       </c>
-      <c r="F12" s="1">
-        <v>2</v>
+      <c r="F12">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1512,8 +1515,8 @@
       <c r="B13" t="s">
         <v>45</v>
       </c>
-      <c r="C13">
-        <v>4</v>
+      <c r="C13" s="1">
+        <v>2</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
@@ -1521,8 +1524,8 @@
       <c r="E13" s="1">
         <v>3</v>
       </c>
-      <c r="F13" s="1">
-        <v>2</v>
+      <c r="F13">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1532,7 +1535,7 @@
       <c r="B14" t="s">
         <v>46</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>5</v>
       </c>
       <c r="D14" s="1">
@@ -1541,7 +1544,7 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>5</v>
       </c>
     </row>
@@ -1552,7 +1555,7 @@
       <c r="B15" t="s">
         <v>46</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>5</v>
       </c>
       <c r="D15" s="1">
@@ -1561,7 +1564,7 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>5</v>
       </c>
     </row>
@@ -1572,7 +1575,7 @@
       <c r="B16" t="s">
         <v>46</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>5</v>
       </c>
       <c r="D16" s="1">
@@ -1581,7 +1584,7 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>5</v>
       </c>
     </row>
@@ -1592,17 +1595,17 @@
       <c r="B17" t="s">
         <v>47</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
         <v>6</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>5</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17">
         <v>6</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1612,17 +1615,17 @@
       <c r="B18" t="s">
         <v>47</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
         <v>6</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>5</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18">
         <v>6</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1632,17 +1635,17 @@
       <c r="B19" t="s">
         <v>47</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
         <v>6</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>5</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19">
         <v>6</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1652,17 +1655,17 @@
       <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
         <v>6</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>5</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20">
         <v>6</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1672,17 +1675,17 @@
       <c r="B21" t="s">
         <v>48</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
+      <c r="F21">
         <v>7</v>
-      </c>
-      <c r="D21" s="1">
-        <v>4</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2</v>
-      </c>
-      <c r="F21" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1692,17 +1695,17 @@
       <c r="B22" t="s">
         <v>48</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4</v>
+      </c>
+      <c r="F22">
         <v>7</v>
-      </c>
-      <c r="D22" s="1">
-        <v>4</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2</v>
-      </c>
-      <c r="F22" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1712,17 +1715,17 @@
       <c r="B23" t="s">
         <v>48</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4</v>
+      </c>
+      <c r="F23">
         <v>7</v>
-      </c>
-      <c r="D23" s="1">
-        <v>4</v>
-      </c>
-      <c r="E23" s="1">
-        <v>2</v>
-      </c>
-      <c r="F23" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1732,17 +1735,17 @@
       <c r="B24" t="s">
         <v>49</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="F24">
         <v>7</v>
-      </c>
-      <c r="D24" s="1">
-        <v>4</v>
-      </c>
-      <c r="E24" s="1">
-        <v>2</v>
-      </c>
-      <c r="F24" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1752,17 +1755,17 @@
       <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4</v>
+      </c>
+      <c r="F25">
         <v>7</v>
-      </c>
-      <c r="D25" s="1">
-        <v>4</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2</v>
-      </c>
-      <c r="F25" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1772,17 +1775,17 @@
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4</v>
+      </c>
+      <c r="F26">
         <v>7</v>
-      </c>
-      <c r="D26" s="1">
-        <v>4</v>
-      </c>
-      <c r="E26" s="1">
-        <v>2</v>
-      </c>
-      <c r="F26" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1792,17 +1795,17 @@
       <c r="B27" t="s">
         <v>48</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4</v>
+      </c>
+      <c r="F27">
         <v>7</v>
-      </c>
-      <c r="D27" s="1">
-        <v>4</v>
-      </c>
-      <c r="E27" s="1">
-        <v>2</v>
-      </c>
-      <c r="F27" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1812,17 +1815,17 @@
       <c r="B28" t="s">
         <v>48</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4</v>
+      </c>
+      <c r="F28">
         <v>7</v>
-      </c>
-      <c r="D28" s="1">
-        <v>4</v>
-      </c>
-      <c r="E28" s="1">
-        <v>2</v>
-      </c>
-      <c r="F28" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1832,17 +1835,17 @@
       <c r="B29" t="s">
         <v>48</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>4</v>
+      </c>
+      <c r="F29">
         <v>7</v>
-      </c>
-      <c r="D29" s="1">
-        <v>4</v>
-      </c>
-      <c r="E29" s="1">
-        <v>2</v>
-      </c>
-      <c r="F29" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1852,17 +1855,17 @@
       <c r="B30" t="s">
         <v>48</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>4</v>
+      </c>
+      <c r="F30">
         <v>7</v>
-      </c>
-      <c r="D30" s="1">
-        <v>4</v>
-      </c>
-      <c r="E30" s="1">
-        <v>2</v>
-      </c>
-      <c r="F30" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1872,17 +1875,17 @@
       <c r="B31" t="s">
         <v>50</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1">
+        <v>7</v>
+      </c>
+      <c r="F31">
         <v>8</v>
-      </c>
-      <c r="D31" s="1">
-        <v>7</v>
-      </c>
-      <c r="E31" s="1">
-        <v>5</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1892,17 +1895,17 @@
       <c r="B32" t="s">
         <v>50</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>5</v>
+      </c>
+      <c r="E32" s="1">
+        <v>7</v>
+      </c>
+      <c r="F32">
         <v>8</v>
-      </c>
-      <c r="D32" s="1">
-        <v>7</v>
-      </c>
-      <c r="E32" s="1">
-        <v>5</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1912,17 +1915,17 @@
       <c r="B33" t="s">
         <v>50</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>5</v>
+      </c>
+      <c r="E33" s="1">
+        <v>7</v>
+      </c>
+      <c r="F33">
         <v>8</v>
-      </c>
-      <c r="D33" s="1">
-        <v>7</v>
-      </c>
-      <c r="E33" s="1">
-        <v>5</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1932,17 +1935,17 @@
       <c r="B34" t="s">
         <v>50</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>5</v>
+      </c>
+      <c r="E34" s="1">
+        <v>7</v>
+      </c>
+      <c r="F34">
         <v>8</v>
-      </c>
-      <c r="D34" s="1">
-        <v>7</v>
-      </c>
-      <c r="E34" s="1">
-        <v>5</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1953,7 +1956,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1962,563 +1965,667 @@
     <col min="8" max="8" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" s="18" customFormat="1">
       <c r="A1" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="1:8" s="18" customFormat="1">
+      <c r="A2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="H2" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="18" customFormat="1">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>0.94799999999999995</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="D3">
-        <v>8.9999999999999993E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E3">
-        <v>0.94</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="F3">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="G3" s="11">
+        <v>4.86487984024938E-9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="18" customFormat="1">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="D4">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.84</v>
+      </c>
+      <c r="F4">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="G4" s="11">
+        <v>9.9720412412475695E-6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="18" customFormat="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="D5">
+        <v>0.01</v>
+      </c>
+      <c r="E5">
+        <v>0.92</v>
+      </c>
+      <c r="F5">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="G5" s="11">
+        <v>8.0229859500424802E-94</v>
+      </c>
+      <c r="H5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="18" customFormat="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="D6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E6">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="F6">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1.90811489089615E-30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="18" customFormat="1">
+      <c r="A7" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:8" s="18" customFormat="1">
+      <c r="A8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="18" customFormat="1">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="D9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E9">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="F9">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1.90811489089615E-30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="18" customFormat="1">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="D10">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E10">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="F10">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="G10" s="11">
+        <v>9.5574757466066108E-46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="D11">
+        <v>0.01</v>
+      </c>
+      <c r="E11">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="F11">
         <v>0.96</v>
       </c>
-      <c r="G3" s="11">
-        <v>2.45331829483571E-15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="D4">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="E4">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="F4">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="G4" s="11">
-        <v>1.6055798154885599E-16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
+      <c r="G11" s="11">
+        <v>2.8397772678145698E-28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="D5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E5">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="F5">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="G5" s="11">
-        <v>1.90811489089615E-30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
+      <c r="B12">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="D6">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="E6">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="F6">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="G6" s="11">
-        <v>1.51968632587228E-7</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="D7">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="E7">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="F7">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="G7" s="11">
-        <v>9.5574757466066108E-46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="D8">
-        <v>1.6E-2</v>
-      </c>
-      <c r="E8">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="F8">
+      <c r="C12">
+        <v>0.876</v>
+      </c>
+      <c r="D12">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="F12">
         <v>0.92200000000000004</v>
       </c>
-      <c r="G8" s="11">
-        <v>4.86487984024938E-9</v>
-      </c>
-      <c r="H8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="D12">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E12">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="F12">
-        <v>0.98399999999999999</v>
-      </c>
       <c r="G12" s="11">
-        <v>1.90811489089615E-30</v>
+        <v>9.2544697849297403E-14</v>
       </c>
       <c r="H12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13">
-        <v>2</v>
+      <c r="A13" s="1">
+        <v>6</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13">
-        <v>0.94799999999999995</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="D13">
-        <v>8.9999999999999993E-3</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E13">
-        <v>0.94</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="F13">
-        <v>0.96</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="G13" s="11">
-        <v>2.45331829483571E-15</v>
+        <v>1.51968632587228E-7</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="D14">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="E14">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="F14">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="G14" s="11">
-        <v>9.5574757466066108E-46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>49</v>
+      <c r="A14" s="13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="D15">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="E15">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="F15">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="G15" s="11">
-        <v>1.51968632587228E-7</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
+      <c r="A15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>0.94699999999999995</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="D16">
-        <v>7.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E16">
-        <v>0.93799999999999994</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="F16">
-        <v>0.95499999999999996</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="G16" s="11">
-        <v>1.6055798154885599E-16</v>
+        <v>1.90811489089615E-30</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="D17">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E17">
+        <v>0.94</v>
+      </c>
+      <c r="F17">
+        <v>0.96</v>
+      </c>
+      <c r="G17" s="11">
+        <v>2.45331829483571E-15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="D18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E18">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="F18">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="G18" s="11">
+        <v>9.5574757466066108E-46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="D19">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E19">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="F19">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="G19" s="11">
+        <v>1.51968632587228E-7</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="D20">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E20">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="F20">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="G20" s="11">
+        <v>1.6055798154885599E-16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
         <v>7</v>
       </c>
-      <c r="B17">
+      <c r="B21">
         <v>6</v>
       </c>
-      <c r="C17">
+      <c r="C21">
         <v>0.876</v>
       </c>
-      <c r="D17">
+      <c r="D21">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="E17">
+      <c r="E21">
         <v>0.84099999999999997</v>
       </c>
-      <c r="F17">
+      <c r="F21">
         <v>0.92200000000000004</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G21" s="11">
         <v>9.2544697849297403E-14</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="15" t="s">
+    <row r="22" spans="1:8">
+      <c r="A22" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G23" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="D21">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E21">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="F21">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="G21" s="11">
-        <v>1.90811489089615E-30</v>
-      </c>
-      <c r="H21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1">
-        <v>2</v>
-      </c>
-      <c r="B22">
-        <v>10</v>
-      </c>
-      <c r="C22">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="D22">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="E22">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="F22">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="G22" s="11">
-        <v>9.5574757466066108E-46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1">
-        <v>4</v>
-      </c>
-      <c r="B23">
-        <v>8</v>
-      </c>
-      <c r="C23">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="D23">
-        <v>0.01</v>
-      </c>
-      <c r="E23">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="F23">
-        <v>0.96</v>
-      </c>
-      <c r="G23" s="11">
-        <v>2.8397772678145698E-28</v>
-      </c>
-      <c r="H23" t="s">
-        <v>93</v>
+      <c r="H23" s="16" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C24">
-        <v>0.876</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="D24">
-        <v>2.8000000000000001E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E24">
-        <v>0.84099999999999997</v>
+        <v>0.94</v>
       </c>
       <c r="F24">
-        <v>0.92200000000000004</v>
+        <v>0.96</v>
       </c>
       <c r="G24" s="11">
-        <v>9.2544697849297403E-14</v>
+        <v>2.45331829483571E-15</v>
       </c>
       <c r="H24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
       <c r="C25">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="D25">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E25">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="F25">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="G25" s="11">
+        <v>1.6055798154885599E-16</v>
+      </c>
+      <c r="H25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="D26">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E26">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="F26">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="G26" s="11">
+        <v>1.90811489089615E-30</v>
+      </c>
+      <c r="H26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
         <v>0.92300000000000004</v>
       </c>
-      <c r="D25">
+      <c r="D27">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E25">
+      <c r="E27">
         <v>0.90900000000000003</v>
       </c>
-      <c r="F25">
+      <c r="F27">
         <v>0.95099999999999996</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G27" s="11">
         <v>1.51968632587228E-7</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>40</v>
+      <c r="A28" s="1">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="D28">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E28">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="F28">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="G28" s="11">
+        <v>9.5574757466066108E-46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -2540,84 +2647,6 @@
       </c>
       <c r="H29" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1">
-        <v>2</v>
-      </c>
-      <c r="B30">
-        <v>6</v>
-      </c>
-      <c r="C30">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="D30">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E30">
-        <v>0.84</v>
-      </c>
-      <c r="F30">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="G30" s="11">
-        <v>9.9720412412475695E-6</v>
-      </c>
-      <c r="H30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1">
-        <v>4</v>
-      </c>
-      <c r="B31">
-        <v>18</v>
-      </c>
-      <c r="C31">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="D31">
-        <v>0.01</v>
-      </c>
-      <c r="E31">
-        <v>0.92</v>
-      </c>
-      <c r="F31">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="G31" s="11">
-        <v>8.0229859500424802E-94</v>
-      </c>
-      <c r="H31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1">
-        <v>5</v>
-      </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="D32">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E32">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="F32">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="G32" s="11">
-        <v>1.90811489089615E-30</v>
-      </c>
-      <c r="H32" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
